--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="31">
   <si>
     <t>Inserted States</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>avg diff (Late-Early)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Removed Time (ms) </t>
   </si>
 </sst>
 </file>
@@ -465,28 +468,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:L71"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="4.75" customWidth="1"/>
     <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="24.75" customWidth="1"/>
     <col min="7" max="7" width="22.875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:11" ht="15">
+    <row r="3" spans="5:11" ht="15">
       <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="6:11" ht="15">
+    <row r="5" spans="5:11" ht="15">
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>7</v>
@@ -499,9 +506,12 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="6:11" ht="15">
+    <row r="6" spans="5:11" ht="15">
+      <c r="E6">
+        <v>41</v>
+      </c>
       <c r="F6">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>34</v>
@@ -517,9 +527,12 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="6:11" ht="15">
+    <row r="7" spans="5:11" ht="15">
+      <c r="E7">
+        <v>40.93</v>
+      </c>
       <c r="F7">
-        <v>40.93</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -535,10 +548,14 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="6:11">
+    <row r="8" spans="5:11">
+      <c r="E8" s="2">
+        <f xml:space="preserve"> E6-E7</f>
+        <v>7.0000000000000284E-2</v>
+      </c>
       <c r="F8" s="2">
         <f xml:space="preserve"> F6-F7</f>
-        <v>7.0000000000000284E-2</v>
+        <v>4</v>
       </c>
       <c r="G8" s="2">
         <f xml:space="preserve"> G6-G7</f>
@@ -554,9 +571,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="6:11" ht="15">
+    <row r="9" spans="5:11" ht="15">
+      <c r="E9">
+        <v>676</v>
+      </c>
       <c r="F9">
-        <v>676</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>192</v>
@@ -571,9 +591,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="6:11" ht="15">
+    <row r="10" spans="5:11" ht="15">
+      <c r="E10">
+        <v>674.62</v>
+      </c>
       <c r="F10">
-        <v>674.62</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -588,10 +611,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="6:11">
+    <row r="11" spans="5:11">
+      <c r="E11" s="2">
+        <f xml:space="preserve"> E9-E10</f>
+        <v>1.3799999999999955</v>
+      </c>
       <c r="F11" s="2">
         <f xml:space="preserve"> F9-F10</f>
-        <v>1.3799999999999955</v>
+        <v>5</v>
       </c>
       <c r="G11" s="2">
         <f xml:space="preserve"> G9-G10</f>
@@ -607,9 +634,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="6:11" ht="15">
+    <row r="12" spans="5:11" ht="15">
+      <c r="E12">
+        <v>142</v>
+      </c>
       <c r="F12">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -624,9 +654,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="6:11" ht="15">
+    <row r="13" spans="5:11" ht="15">
+      <c r="E13">
+        <v>141.16901999999999</v>
+      </c>
       <c r="F13">
-        <v>141.16901999999999</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -641,10 +674,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="6:11">
+    <row r="14" spans="5:11">
+      <c r="E14" s="2">
+        <f xml:space="preserve"> E12-E13</f>
+        <v>0.83098000000001093</v>
+      </c>
       <c r="F14" s="2">
         <f xml:space="preserve"> F12-F13</f>
-        <v>0.83098000000001093</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2">
         <f xml:space="preserve"> G12-G13</f>
@@ -660,9 +697,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="6:11" ht="15">
+    <row r="15" spans="5:11" ht="15">
+      <c r="E15">
+        <v>626</v>
+      </c>
       <c r="F15">
-        <v>626</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>44</v>
@@ -677,9 +717,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="6:11" ht="15">
+    <row r="16" spans="5:11" ht="15">
+      <c r="E16">
+        <v>620.03470000000004</v>
+      </c>
       <c r="F16">
-        <v>620.03470000000004</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -694,10 +737,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="6:11">
+    <row r="17" spans="5:11">
+      <c r="E17" s="2">
+        <f xml:space="preserve"> E15-E16</f>
+        <v>5.9652999999999565</v>
+      </c>
       <c r="F17" s="2">
         <f xml:space="preserve"> F15-F16</f>
-        <v>5.9652999999999565</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
         <f xml:space="preserve"> G15-G16</f>
@@ -713,9 +760,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="6:11" ht="15">
+    <row r="18" spans="5:11" ht="15">
+      <c r="E18">
+        <v>501</v>
+      </c>
       <c r="F18">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>35</v>
@@ -730,9 +780,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="6:11" ht="15">
+    <row r="19" spans="5:11" ht="15">
+      <c r="E19">
+        <v>489.65575999999999</v>
+      </c>
       <c r="F19">
-        <v>489.65575999999999</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -747,10 +800,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="6:11">
+    <row r="20" spans="5:11">
+      <c r="E20" s="2">
+        <f xml:space="preserve"> E18-E19</f>
+        <v>11.344240000000013</v>
+      </c>
       <c r="F20" s="2">
         <f xml:space="preserve"> F18-F19</f>
-        <v>11.344240000000013</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2">
         <f xml:space="preserve"> G18-G19</f>
@@ -766,9 +823,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="6:11" ht="15">
+    <row r="21" spans="5:11" ht="15">
+      <c r="E21">
+        <v>90</v>
+      </c>
       <c r="F21">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>7</v>
@@ -783,9 +843,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="6:11" ht="15">
+    <row r="22" spans="5:11" ht="15">
+      <c r="E22">
+        <v>88.371610000000004</v>
+      </c>
       <c r="F22">
-        <v>88.371610000000004</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -800,10 +863,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="6:11">
+    <row r="23" spans="5:11">
+      <c r="E23" s="2">
+        <f xml:space="preserve"> E21-E22</f>
+        <v>1.628389999999996</v>
+      </c>
       <c r="F23" s="2">
         <f xml:space="preserve"> F21-F22</f>
-        <v>1.628389999999996</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
         <f xml:space="preserve"> G21-G22</f>
@@ -819,9 +886,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="6:11" ht="15">
+    <row r="24" spans="5:11" ht="15">
+      <c r="E24">
+        <v>475</v>
+      </c>
       <c r="F24">
-        <v>475</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>35</v>
@@ -836,9 +906,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="6:11" ht="15">
+    <row r="25" spans="5:11" ht="15">
+      <c r="E25">
+        <v>466.96472</v>
+      </c>
       <c r="F25">
-        <v>466.96472</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -853,10 +926,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="6:11">
+    <row r="26" spans="5:11">
+      <c r="E26" s="2">
+        <f xml:space="preserve"> E24-E25</f>
+        <v>8.0352800000000002</v>
+      </c>
       <c r="F26" s="2">
         <f xml:space="preserve"> F24-F25</f>
-        <v>8.0352800000000002</v>
+        <v>2</v>
       </c>
       <c r="G26" s="2">
         <f xml:space="preserve"> G24-G25</f>
@@ -872,9 +949,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="6:11" ht="15">
+    <row r="27" spans="5:11" ht="15">
+      <c r="E27">
+        <v>844</v>
+      </c>
       <c r="F27">
-        <v>844</v>
+        <v>4</v>
       </c>
       <c r="G27">
         <v>80</v>
@@ -889,9 +969,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="6:11" ht="15">
+    <row r="28" spans="5:11" ht="15">
+      <c r="E28">
+        <v>821.20719999999994</v>
+      </c>
       <c r="F28">
-        <v>821.20719999999994</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -906,10 +989,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="6:11">
+    <row r="29" spans="5:11">
+      <c r="E29" s="2">
+        <f xml:space="preserve"> E27-E28</f>
+        <v>22.792800000000057</v>
+      </c>
       <c r="F29" s="2">
         <f xml:space="preserve"> F27-F28</f>
-        <v>22.792800000000057</v>
+        <v>4</v>
       </c>
       <c r="G29" s="2">
         <f xml:space="preserve"> G27-G28</f>
@@ -925,9 +1012,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="6:11" ht="15">
+    <row r="30" spans="5:11" ht="15">
+      <c r="E30">
+        <v>672</v>
+      </c>
       <c r="F30">
-        <v>672</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>78</v>
@@ -942,9 +1032,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="6:11" ht="15">
+    <row r="31" spans="5:11" ht="15">
+      <c r="E31">
+        <v>662.74429999999995</v>
+      </c>
       <c r="F31">
-        <v>662.74429999999995</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -959,10 +1052,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="6:11">
+    <row r="32" spans="5:11">
+      <c r="E32" s="2">
+        <f xml:space="preserve"> E30-E31</f>
+        <v>9.2557000000000471</v>
+      </c>
       <c r="F32" s="2">
         <f xml:space="preserve"> F30-F31</f>
-        <v>9.2557000000000471</v>
+        <v>1</v>
       </c>
       <c r="G32" s="2">
         <f xml:space="preserve"> G30-G31</f>
@@ -978,9 +1075,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="6:11" ht="15">
+    <row r="33" spans="5:11" ht="15">
+      <c r="E33">
+        <v>661</v>
+      </c>
       <c r="F33">
-        <v>661</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>65</v>
@@ -995,9 +1095,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="6:11" ht="15">
+    <row r="34" spans="5:11" ht="15">
+      <c r="E34">
+        <v>647.58636000000001</v>
+      </c>
       <c r="F34">
-        <v>647.58636000000001</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1012,10 +1115,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="6:11">
+    <row r="35" spans="5:11">
+      <c r="E35" s="2">
+        <f xml:space="preserve"> E33-E34</f>
+        <v>13.413639999999987</v>
+      </c>
       <c r="F35" s="2">
         <f xml:space="preserve"> F33-F34</f>
-        <v>13.413639999999987</v>
+        <v>0</v>
       </c>
       <c r="G35" s="2">
         <f xml:space="preserve"> G33-G34</f>
@@ -1031,9 +1138,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="6:11" ht="15">
+    <row r="36" spans="5:11" ht="15">
+      <c r="E36">
+        <v>1631</v>
+      </c>
       <c r="F36">
-        <v>1631</v>
+        <v>7</v>
       </c>
       <c r="G36">
         <v>214</v>
@@ -1048,9 +1158,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="6:11" ht="15">
+    <row r="37" spans="5:11" ht="15">
+      <c r="E37">
+        <v>1595.1986999999999</v>
+      </c>
       <c r="F37">
-        <v>1595.1986999999999</v>
+        <v>5</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -1065,10 +1178,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="6:11">
+    <row r="38" spans="5:11">
+      <c r="E38" s="2">
+        <f xml:space="preserve"> E36-E37</f>
+        <v>35.801300000000083</v>
+      </c>
       <c r="F38" s="2">
         <f xml:space="preserve"> F36-F37</f>
-        <v>35.801300000000083</v>
+        <v>2</v>
       </c>
       <c r="G38" s="2">
         <f xml:space="preserve"> G36-G37</f>
@@ -1084,9 +1201,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="6:11" ht="15">
+    <row r="39" spans="5:11" ht="15">
+      <c r="E39">
+        <v>1119</v>
+      </c>
       <c r="F39">
-        <v>1119</v>
+        <v>4</v>
       </c>
       <c r="G39">
         <v>82</v>
@@ -1101,9 +1221,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="6:11" ht="15">
+    <row r="40" spans="5:11" ht="15">
+      <c r="E40">
+        <v>1037.2797</v>
+      </c>
       <c r="F40">
-        <v>1037.2797</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -1118,10 +1241,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="6:11">
+    <row r="41" spans="5:11">
+      <c r="E41" s="2">
+        <f xml:space="preserve"> E39-E40</f>
+        <v>81.720299999999952</v>
+      </c>
       <c r="F41" s="2">
         <f xml:space="preserve"> F39-F40</f>
-        <v>81.720299999999952</v>
+        <v>3</v>
       </c>
       <c r="G41" s="2">
         <f xml:space="preserve"> G39-G40</f>
@@ -1137,9 +1264,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="6:11" ht="15">
+    <row r="42" spans="5:11" ht="15">
+      <c r="E42">
+        <v>438</v>
+      </c>
       <c r="F42">
-        <v>438</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>25</v>
@@ -1154,9 +1284,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="6:11" ht="15">
+    <row r="43" spans="5:11" ht="15">
+      <c r="E43">
+        <v>435.94576999999998</v>
+      </c>
       <c r="F43">
-        <v>435.94576999999998</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1171,10 +1304,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="6:11">
+    <row r="44" spans="5:11">
+      <c r="E44" s="2">
+        <f xml:space="preserve"> E42-E43</f>
+        <v>2.0542300000000182</v>
+      </c>
       <c r="F44" s="2">
         <f xml:space="preserve"> F42-F43</f>
-        <v>2.0542300000000182</v>
+        <v>1</v>
       </c>
       <c r="G44" s="2">
         <f xml:space="preserve"> G42-G43</f>
@@ -1190,9 +1327,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="6:11" ht="15">
+    <row r="45" spans="5:11" ht="15">
+      <c r="E45">
+        <v>433</v>
+      </c>
       <c r="F45">
-        <v>433</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>30</v>
@@ -1207,9 +1347,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="6:11" ht="15">
+    <row r="46" spans="5:11" ht="15">
+      <c r="E46">
+        <v>428.92259999999999</v>
+      </c>
       <c r="F46">
-        <v>428.92259999999999</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1224,10 +1367,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="6:11">
+    <row r="47" spans="5:11">
+      <c r="E47" s="2">
+        <f xml:space="preserve"> E45-E46</f>
+        <v>4.0774000000000115</v>
+      </c>
       <c r="F47" s="2">
         <f xml:space="preserve"> F45-F46</f>
-        <v>4.0774000000000115</v>
+        <v>1</v>
       </c>
       <c r="G47" s="2">
         <f xml:space="preserve"> G45-G46</f>
@@ -1243,9 +1390,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="6:11" ht="15">
+    <row r="48" spans="5:11" ht="15">
+      <c r="E48">
+        <v>384</v>
+      </c>
       <c r="F48">
-        <v>384</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>35</v>
@@ -1260,9 +1410,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="6:11" ht="15">
+    <row r="49" spans="5:11" ht="15">
+      <c r="E49">
+        <v>378.06536999999997</v>
+      </c>
       <c r="F49">
-        <v>378.06536999999997</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -1277,10 +1430,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="6:11">
+    <row r="50" spans="5:11">
+      <c r="E50" s="2">
+        <f xml:space="preserve"> E48-E49</f>
+        <v>5.9346300000000269</v>
+      </c>
       <c r="F50" s="2">
         <f xml:space="preserve"> F48-F49</f>
-        <v>5.9346300000000269</v>
+        <v>1</v>
       </c>
       <c r="G50" s="2">
         <f xml:space="preserve"> G48-G49</f>
@@ -1296,9 +1453,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="6:11" ht="15">
+    <row r="51" spans="5:11" ht="15">
+      <c r="E51">
+        <v>974</v>
+      </c>
       <c r="F51">
-        <v>974</v>
+        <v>3</v>
       </c>
       <c r="G51">
         <v>112</v>
@@ -1313,9 +1473,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="6:11" ht="15">
+    <row r="52" spans="5:11" ht="15">
+      <c r="E52">
+        <v>951.49329999999998</v>
+      </c>
       <c r="F52">
-        <v>951.49329999999998</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -1330,10 +1493,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="6:11">
+    <row r="53" spans="5:11">
+      <c r="E53" s="2">
+        <f xml:space="preserve"> E51-E52</f>
+        <v>22.506700000000023</v>
+      </c>
       <c r="F53" s="2">
         <f xml:space="preserve"> F51-F52</f>
-        <v>22.506700000000023</v>
+        <v>3</v>
       </c>
       <c r="G53" s="2">
         <f xml:space="preserve"> G51-G52</f>
@@ -1349,9 +1516,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="6:11" ht="15">
+    <row r="54" spans="5:11" ht="15">
+      <c r="E54">
+        <v>776</v>
+      </c>
       <c r="F54">
-        <v>776</v>
+        <v>3</v>
       </c>
       <c r="G54">
         <v>59</v>
@@ -1366,9 +1536,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="6:11" ht="15">
+    <row r="55" spans="5:11" ht="15">
+      <c r="E55">
+        <v>756.46984999999995</v>
+      </c>
       <c r="F55">
-        <v>756.46984999999995</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -1383,10 +1556,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="6:11">
+    <row r="56" spans="5:11">
+      <c r="E56" s="2">
+        <f xml:space="preserve"> E54-E55</f>
+        <v>19.530150000000049</v>
+      </c>
       <c r="F56" s="2">
         <f xml:space="preserve"> F54-F55</f>
-        <v>19.530150000000049</v>
+        <v>3</v>
       </c>
       <c r="G56" s="2">
         <f xml:space="preserve"> G54-G55</f>
@@ -1402,9 +1579,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="6:11" ht="15">
+    <row r="57" spans="5:11" ht="15">
+      <c r="E57">
+        <v>295</v>
+      </c>
       <c r="F57">
-        <v>295</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>19</v>
@@ -1419,9 +1599,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="6:11" ht="15">
+    <row r="58" spans="5:11" ht="15">
+      <c r="E58">
+        <v>294.04775999999998</v>
+      </c>
       <c r="F58">
-        <v>294.04775999999998</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -1436,10 +1619,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="6:11">
+    <row r="59" spans="5:11">
+      <c r="E59" s="2">
+        <f xml:space="preserve"> E57-E58</f>
+        <v>0.95224000000001752</v>
+      </c>
       <c r="F59" s="2">
         <f xml:space="preserve"> F57-F58</f>
-        <v>0.95224000000001752</v>
+        <v>1</v>
       </c>
       <c r="G59" s="2">
         <f xml:space="preserve"> G57-G58</f>
@@ -1455,9 +1642,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="6:11" ht="15">
+    <row r="60" spans="5:11" ht="15">
+      <c r="E60">
+        <v>375</v>
+      </c>
       <c r="F60">
-        <v>375</v>
+        <v>3</v>
       </c>
       <c r="G60">
         <v>25</v>
@@ -1472,9 +1662,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="6:11" ht="15">
+    <row r="61" spans="5:11" ht="15">
+      <c r="E61">
+        <v>368.1551</v>
+      </c>
       <c r="F61">
-        <v>368.1551</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -1489,10 +1682,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="6:11">
+    <row r="62" spans="5:11">
+      <c r="E62" s="2">
+        <f xml:space="preserve"> E60-E61</f>
+        <v>6.8448999999999955</v>
+      </c>
       <c r="F62" s="2">
         <f xml:space="preserve"> F60-F61</f>
-        <v>6.8448999999999955</v>
+        <v>2</v>
       </c>
       <c r="G62" s="2">
         <f xml:space="preserve"> G60-G61</f>
@@ -1508,9 +1705,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="6:11" ht="15">
+    <row r="63" spans="5:11" ht="15">
+      <c r="E63">
+        <v>415</v>
+      </c>
       <c r="F63">
-        <v>415</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>27</v>
@@ -1525,9 +1725,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="6:11" ht="15">
+    <row r="64" spans="5:11" ht="15">
+      <c r="E64">
+        <v>402.61020000000002</v>
+      </c>
       <c r="F64">
-        <v>402.61020000000002</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -1542,10 +1745,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="6:12">
+    <row r="65" spans="5:12">
+      <c r="E65" s="2">
+        <f xml:space="preserve"> E63-E64</f>
+        <v>12.38979999999998</v>
+      </c>
       <c r="F65" s="2">
         <f xml:space="preserve"> F63-F64</f>
-        <v>12.38979999999998</v>
+        <v>1</v>
       </c>
       <c r="G65" s="2">
         <f xml:space="preserve"> G63-G64</f>
@@ -1561,9 +1768,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="6:12" ht="15">
+    <row r="68" spans="5:12" ht="15">
+      <c r="E68" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F68" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>7</v>
@@ -1572,10 +1782,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="6:12">
+    <row r="69" spans="5:12">
+      <c r="E69">
+        <f xml:space="preserve"> E8+E11+E14+E17+E20+E23+E26+E29+E32+E35+E38+E41+E44+E47+E50+E53+E56+E59+E62+E65</f>
+        <v>266.52798000000018</v>
+      </c>
       <c r="F69">
         <f xml:space="preserve"> F8+F11+F14+F17+F20+F23+F26+F29+F32+F35+F38+F41+F44+F47+F50+F53+F56+F59+F62+F65</f>
-        <v>266.52798000000018</v>
+        <v>37</v>
       </c>
       <c r="G69">
         <f xml:space="preserve"> G8+G11+G14+G17+G20+G23+G26+G29+G32+G35+G38+G41+G44+G47+G50+G53+G56+G59+G62+G65</f>
@@ -1589,10 +1803,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="6:12">
+    <row r="71" spans="5:12">
+      <c r="E71" s="2">
+        <f xml:space="preserve"> E69/20</f>
+        <v>13.326399000000009</v>
+      </c>
       <c r="F71" s="2">
         <f xml:space="preserve"> F69/20</f>
-        <v>13.326399000000009</v>
+        <v>1.85</v>
       </c>
       <c r="G71" s="2">
         <f xml:space="preserve"> G69/20</f>
